--- a/team_specific_matrix/Bryant_B.xlsx
+++ b/team_specific_matrix/Bryant_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2474916387959866</v>
+        <v>0.2452316076294278</v>
       </c>
       <c r="C2">
-        <v>0.4816053511705686</v>
+        <v>0.4768392370572207</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01672240802675585</v>
+        <v>0.01634877384196185</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1739130434782609</v>
+        <v>0.1798365122615804</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0802675585284281</v>
+        <v>0.08174386920980926</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02547770700636943</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="C3">
-        <v>0.08917197452229299</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04458598726114649</v>
+        <v>0.04232804232804233</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6815286624203821</v>
+        <v>0.708994708994709</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1592356687898089</v>
+        <v>0.1481481481481481</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02777777777777778</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6111111111111112</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3611111111111111</v>
+        <v>0.3658536585365854</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09677419354838709</v>
+        <v>0.08290155440414508</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006451612903225806</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03870967741935484</v>
+        <v>0.0310880829015544</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.232258064516129</v>
+        <v>0.2383419689119171</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.05161290322580645</v>
+        <v>0.04145077720207254</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1096774193548387</v>
+        <v>0.1243523316062176</v>
       </c>
       <c r="R6">
-        <v>0.06451612903225806</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="S6">
-        <v>0.4</v>
+        <v>0.3989637305699482</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1111111111111111</v>
+        <v>0.1021505376344086</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0261437908496732</v>
+        <v>0.02688172043010753</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05882352941176471</v>
+        <v>0.05913978494623656</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.130718954248366</v>
+        <v>0.1397849462365591</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0261437908496732</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1372549019607843</v>
+        <v>0.1397849462365591</v>
       </c>
       <c r="R7">
-        <v>0.05228758169934641</v>
+        <v>0.06989247311827956</v>
       </c>
       <c r="S7">
-        <v>0.457516339869281</v>
+        <v>0.4408602150537634</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06862745098039216</v>
+        <v>0.06981519507186858</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03186274509803921</v>
+        <v>0.02874743326488706</v>
       </c>
       <c r="E8">
-        <v>0.002450980392156863</v>
+        <v>0.002053388090349076</v>
       </c>
       <c r="F8">
-        <v>0.04166666666666666</v>
+        <v>0.0431211498973306</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1151960784313725</v>
+        <v>0.1211498973305955</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03186274509803921</v>
+        <v>0.03080082135523614</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1911764705882353</v>
+        <v>0.1848049281314168</v>
       </c>
       <c r="R8">
-        <v>0.08088235294117647</v>
+        <v>0.08213552361396304</v>
       </c>
       <c r="S8">
-        <v>0.4362745098039216</v>
+        <v>0.4373716632443532</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08620689655172414</v>
+        <v>0.08597285067873303</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02873563218390805</v>
+        <v>0.02262443438914027</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04597701149425287</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09195402298850575</v>
+        <v>0.1131221719457014</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02298850574712644</v>
+        <v>0.02262443438914027</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1954022988505747</v>
+        <v>0.1809954751131222</v>
       </c>
       <c r="R9">
-        <v>0.09195402298850575</v>
+        <v>0.08144796380090498</v>
       </c>
       <c r="S9">
-        <v>0.4367816091954023</v>
+        <v>0.4389140271493213</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1246797608881298</v>
+        <v>0.1258644536652835</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01451750640478224</v>
+        <v>0.01313969571230982</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05294619982920581</v>
+        <v>0.05255878284923928</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1451750640478224</v>
+        <v>0.1452282157676349</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02391118701964133</v>
+        <v>0.02213001383125865</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1998292058070026</v>
+        <v>0.1950207468879668</v>
       </c>
       <c r="R10">
-        <v>0.07429547395388557</v>
+        <v>0.07192254495159059</v>
       </c>
       <c r="S10">
-        <v>0.3646456020495303</v>
+        <v>0.3741355463347165</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1647058823529412</v>
+        <v>0.1633986928104575</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1137254901960784</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="K11">
-        <v>0.2352941176470588</v>
+        <v>0.2287581699346405</v>
       </c>
       <c r="L11">
-        <v>0.4784313725490196</v>
+        <v>0.477124183006536</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007843137254901961</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7238805970149254</v>
+        <v>0.70625</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1791044776119403</v>
+        <v>0.19375</v>
       </c>
       <c r="K12">
-        <v>0.007462686567164179</v>
+        <v>0.00625</v>
       </c>
       <c r="L12">
-        <v>0.06716417910447761</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02238805970149254</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.475</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.025</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02688172043010753</v>
+        <v>0.02202643171806168</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1666666666666667</v>
+        <v>0.1718061674008811</v>
       </c>
       <c r="I15">
-        <v>0.04838709677419355</v>
+        <v>0.05286343612334802</v>
       </c>
       <c r="J15">
-        <v>0.3387096774193548</v>
+        <v>0.3348017621145374</v>
       </c>
       <c r="K15">
-        <v>0.03225806451612903</v>
+        <v>0.03083700440528634</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02150537634408602</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06451612903225806</v>
+        <v>0.07488986784140969</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3010752688172043</v>
+        <v>0.2951541850220264</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02890173410404624</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1849710982658959</v>
+        <v>0.1784037558685446</v>
       </c>
       <c r="I16">
-        <v>0.08670520231213873</v>
+        <v>0.07981220657276995</v>
       </c>
       <c r="J16">
-        <v>0.4046242774566474</v>
+        <v>0.4037558685446009</v>
       </c>
       <c r="K16">
-        <v>0.115606936416185</v>
+        <v>0.107981220657277</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01734104046242774</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02312138728323699</v>
+        <v>0.03755868544600939</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.138728323699422</v>
+        <v>0.1502347417840376</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01036269430051814</v>
+        <v>0.01505376344086022</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1917098445595855</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="I17">
-        <v>0.1088082901554404</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="J17">
-        <v>0.4637305699481865</v>
+        <v>0.4559139784946237</v>
       </c>
       <c r="K17">
-        <v>0.08290155440414508</v>
+        <v>0.09247311827956989</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01813471502590673</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002150537634408602</v>
       </c>
       <c r="O17">
-        <v>0.05699481865284974</v>
+        <v>0.05806451612903226</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.06735751295336788</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.006578947368421052</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.243421052631579</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="I18">
-        <v>0.07236842105263158</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="J18">
-        <v>0.4013157894736842</v>
+        <v>0.4301075268817204</v>
       </c>
       <c r="K18">
-        <v>0.125</v>
+        <v>0.1236559139784946</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0131578947368421</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08552631578947369</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.05263157894736842</v>
+        <v>0.05376344086021505</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01302325581395349</v>
+        <v>0.0135236664162284</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2176744186046512</v>
+        <v>0.2156273478587528</v>
       </c>
       <c r="I19">
-        <v>0.09209302325581395</v>
+        <v>0.09917355371900827</v>
       </c>
       <c r="J19">
-        <v>0.4102325581395349</v>
+        <v>0.4064613072877536</v>
       </c>
       <c r="K19">
-        <v>0.107906976744186</v>
+        <v>0.1029301277235162</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02325581395348837</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="N19">
-        <v>0.0009302325581395349</v>
+        <v>0.0007513148009015778</v>
       </c>
       <c r="O19">
-        <v>0.05395348837209302</v>
+        <v>0.0540946656649136</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08093023255813954</v>
+        <v>0.08264462809917356</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Bryant_B.xlsx
+++ b/team_specific_matrix/Bryant_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2452316076294278</v>
+        <v>0.2378516624040921</v>
       </c>
       <c r="C2">
-        <v>0.4768392370572207</v>
+        <v>0.4910485933503836</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01634877384196185</v>
+        <v>0.01534526854219949</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1798365122615804</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08174386920980926</v>
+        <v>0.07928388746803069</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02645502645502645</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="C3">
-        <v>0.07407407407407407</v>
+        <v>0.09345794392523364</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04232804232804233</v>
+        <v>0.04672897196261682</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.708994708994709</v>
+        <v>0.6915887850467289</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1481481481481481</v>
+        <v>0.1448598130841121</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04878048780487805</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5853658536585366</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3658536585365854</v>
+        <v>0.3953488372093023</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08290155440414508</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01036269430051814</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0310880829015544</v>
+        <v>0.03240740740740741</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2383419689119171</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04145077720207254</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1243523316062176</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="R6">
-        <v>0.07253886010362694</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="S6">
-        <v>0.3989637305699482</v>
+        <v>0.3842592592592592</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1021505376344086</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02688172043010753</v>
+        <v>0.02463054187192118</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05913978494623656</v>
+        <v>0.0541871921182266</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1397849462365591</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02150537634408602</v>
+        <v>0.02463054187192118</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1397849462365591</v>
+        <v>0.1477832512315271</v>
       </c>
       <c r="R7">
-        <v>0.06989247311827956</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="S7">
-        <v>0.4408602150537634</v>
+        <v>0.4384236453201971</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06981519507186858</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02874743326488706</v>
+        <v>0.02592592592592593</v>
       </c>
       <c r="E8">
-        <v>0.002053388090349076</v>
+        <v>0.001851851851851852</v>
       </c>
       <c r="F8">
-        <v>0.0431211498973306</v>
+        <v>0.04074074074074074</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1211498973305955</v>
+        <v>0.1240740740740741</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03080082135523614</v>
+        <v>0.02962962962962963</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1848049281314168</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="R8">
-        <v>0.08213552361396304</v>
+        <v>0.07962962962962963</v>
       </c>
       <c r="S8">
-        <v>0.4373716632443532</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08597285067873303</v>
+        <v>0.08677685950413223</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02262443438914027</v>
+        <v>0.02066115702479339</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05429864253393665</v>
+        <v>0.04958677685950413</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1131221719457014</v>
+        <v>0.1033057851239669</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02262443438914027</v>
+        <v>0.02066115702479339</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1809954751131222</v>
+        <v>0.1859504132231405</v>
       </c>
       <c r="R9">
-        <v>0.08144796380090498</v>
+        <v>0.0743801652892562</v>
       </c>
       <c r="S9">
-        <v>0.4389140271493213</v>
+        <v>0.4586776859504132</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1258644536652835</v>
+        <v>0.121571072319202</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01313969571230982</v>
+        <v>0.01246882793017456</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05255878284923928</v>
+        <v>0.05548628428927681</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1452282157676349</v>
+        <v>0.1446384039900249</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02213001383125865</v>
+        <v>0.02182044887780549</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1950207468879668</v>
+        <v>0.1932668329177057</v>
       </c>
       <c r="R10">
-        <v>0.07192254495159059</v>
+        <v>0.07793017456359103</v>
       </c>
       <c r="S10">
-        <v>0.3741355463347165</v>
+        <v>0.3728179551122194</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1633986928104575</v>
+        <v>0.1606060606060606</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1176470588235294</v>
+        <v>0.1151515151515152</v>
       </c>
       <c r="K11">
-        <v>0.2287581699346405</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="L11">
-        <v>0.477124183006536</v>
+        <v>0.4818181818181818</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0130718954248366</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.70625</v>
+        <v>0.7126436781609196</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.19375</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="K12">
-        <v>0.00625</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="L12">
-        <v>0.06875000000000001</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.025</v>
+        <v>0.02298850574712644</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5384615384615384</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4230769230769231</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03846153846153846</v>
+        <v>0.03508771929824561</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02202643171806168</v>
+        <v>0.0242914979757085</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1718061674008811</v>
+        <v>0.1700404858299595</v>
       </c>
       <c r="I15">
-        <v>0.05286343612334802</v>
+        <v>0.048582995951417</v>
       </c>
       <c r="J15">
-        <v>0.3348017621145374</v>
+        <v>0.3238866396761134</v>
       </c>
       <c r="K15">
-        <v>0.03083700440528634</v>
+        <v>0.03238866396761134</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01762114537444934</v>
+        <v>0.01619433198380567</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07488986784140969</v>
+        <v>0.06882591093117409</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2951541850220264</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02816901408450704</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1784037558685446</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="I16">
-        <v>0.07981220657276995</v>
+        <v>0.0782608695652174</v>
       </c>
       <c r="J16">
-        <v>0.4037558685446009</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="K16">
-        <v>0.107981220657277</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01408450704225352</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03755868544600939</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1502347417840376</v>
+        <v>0.1478260869565217</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01505376344086022</v>
+        <v>0.01553398058252427</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1827956989247312</v>
+        <v>0.1825242718446602</v>
       </c>
       <c r="I17">
-        <v>0.1075268817204301</v>
+        <v>0.1048543689320388</v>
       </c>
       <c r="J17">
-        <v>0.4559139784946237</v>
+        <v>0.4601941747572815</v>
       </c>
       <c r="K17">
-        <v>0.09247311827956989</v>
+        <v>0.09320388349514563</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01935483870967742</v>
+        <v>0.01747572815533981</v>
       </c>
       <c r="N17">
-        <v>0.002150537634408602</v>
+        <v>0.001941747572815534</v>
       </c>
       <c r="O17">
-        <v>0.05806451612903226</v>
+        <v>0.05436893203883495</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.06666666666666667</v>
+        <v>0.06990291262135923</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005376344086021506</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2150537634408602</v>
+        <v>0.2206572769953052</v>
       </c>
       <c r="I18">
-        <v>0.06451612903225806</v>
+        <v>0.06572769953051644</v>
       </c>
       <c r="J18">
-        <v>0.4301075268817204</v>
+        <v>0.4366197183098591</v>
       </c>
       <c r="K18">
-        <v>0.1236559139784946</v>
+        <v>0.107981220657277</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02150537634408602</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08602150537634409</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.05376344086021505</v>
+        <v>0.06103286384976526</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0135236664162284</v>
+        <v>0.01279461279461279</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2156273478587528</v>
+        <v>0.2161616161616162</v>
       </c>
       <c r="I19">
-        <v>0.09917355371900827</v>
+        <v>0.09831649831649832</v>
       </c>
       <c r="J19">
-        <v>0.4064613072877536</v>
+        <v>0.4087542087542088</v>
       </c>
       <c r="K19">
-        <v>0.1029301277235162</v>
+        <v>0.1003367003367003</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02479338842975207</v>
+        <v>0.02558922558922559</v>
       </c>
       <c r="N19">
-        <v>0.0007513148009015778</v>
+        <v>0.0006734006734006734</v>
       </c>
       <c r="O19">
-        <v>0.0540946656649136</v>
+        <v>0.05387205387205387</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08264462809917356</v>
+        <v>0.08350168350168351</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Bryant_B.xlsx
+++ b/team_specific_matrix/Bryant_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2378516624040921</v>
+        <v>0.24</v>
       </c>
       <c r="C2">
-        <v>0.4910485933503836</v>
+        <v>0.49</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01534526854219949</v>
+        <v>0.015</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1764705882352941</v>
+        <v>0.1725</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07928388746803069</v>
+        <v>0.0825</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02336448598130841</v>
+        <v>0.02293577981651376</v>
       </c>
       <c r="C3">
-        <v>0.09345794392523364</v>
+        <v>0.09174311926605505</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04672897196261682</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6915887850467289</v>
+        <v>0.6926605504587156</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1448598130841121</v>
+        <v>0.1467889908256881</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04651162790697674</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5581395348837209</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3953488372093023</v>
+        <v>0.425531914893617</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08333333333333333</v>
+        <v>0.08144796380090498</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01388888888888889</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03240740740740741</v>
+        <v>0.03167420814479638</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2314814814814815</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04166666666666666</v>
+        <v>0.04072398190045249</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1388888888888889</v>
+        <v>0.1357466063348416</v>
       </c>
       <c r="R6">
-        <v>0.07407407407407407</v>
+        <v>0.07239819004524888</v>
       </c>
       <c r="S6">
-        <v>0.3842592592592592</v>
+        <v>0.3891402714932127</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.103448275862069</v>
+        <v>0.1042654028436019</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02463054187192118</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0541871921182266</v>
+        <v>0.05213270142180094</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1379310344827586</v>
+        <v>0.1374407582938389</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02463054187192118</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1477832512315271</v>
+        <v>0.1469194312796208</v>
       </c>
       <c r="R7">
-        <v>0.06896551724137931</v>
+        <v>0.07109004739336493</v>
       </c>
       <c r="S7">
-        <v>0.4384236453201971</v>
+        <v>0.4407582938388626</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06481481481481481</v>
+        <v>0.06618962432915922</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02592592592592593</v>
+        <v>0.02504472271914132</v>
       </c>
       <c r="E8">
-        <v>0.001851851851851852</v>
+        <v>0.001788908765652952</v>
       </c>
       <c r="F8">
-        <v>0.04074074074074074</v>
+        <v>0.04114490161001789</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1240740740740741</v>
+        <v>0.1288014311270125</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02962962962962963</v>
+        <v>0.02862254025044723</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1833333333333333</v>
+        <v>0.1806797853309481</v>
       </c>
       <c r="R8">
-        <v>0.07962962962962963</v>
+        <v>0.07871198568872988</v>
       </c>
       <c r="S8">
-        <v>0.45</v>
+        <v>0.4490161001788909</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08677685950413223</v>
+        <v>0.08366533864541832</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02066115702479339</v>
+        <v>0.0199203187250996</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04958677685950413</v>
+        <v>0.05179282868525897</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1033057851239669</v>
+        <v>0.1075697211155379</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02066115702479339</v>
+        <v>0.0199203187250996</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1859504132231405</v>
+        <v>0.199203187250996</v>
       </c>
       <c r="R9">
-        <v>0.0743801652892562</v>
+        <v>0.07171314741035857</v>
       </c>
       <c r="S9">
-        <v>0.4586776859504132</v>
+        <v>0.4462151394422311</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.121571072319202</v>
+        <v>0.1192771084337349</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01246882793017456</v>
+        <v>0.01445783132530121</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05548628428927681</v>
+        <v>0.05481927710843373</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1446384039900249</v>
+        <v>0.1451807228915663</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02182044887780549</v>
+        <v>0.02168674698795181</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1932668329177057</v>
+        <v>0.1921686746987952</v>
       </c>
       <c r="R10">
-        <v>0.07793017456359103</v>
+        <v>0.07951807228915662</v>
       </c>
       <c r="S10">
-        <v>0.3728179551122194</v>
+        <v>0.3728915662650603</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1606060606060606</v>
+        <v>0.1598837209302326</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1151515151515152</v>
+        <v>0.1191860465116279</v>
       </c>
       <c r="K11">
-        <v>0.2272727272727273</v>
+        <v>0.2296511627906977</v>
       </c>
       <c r="L11">
-        <v>0.4818181818181818</v>
+        <v>0.4767441860465116</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01515151515151515</v>
+        <v>0.01453488372093023</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7126436781609196</v>
+        <v>0.7206703910614525</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1896551724137931</v>
+        <v>0.1843575418994413</v>
       </c>
       <c r="K12">
-        <v>0.005747126436781609</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="L12">
-        <v>0.06896551724137931</v>
+        <v>0.0670391061452514</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02298850574712644</v>
+        <v>0.0223463687150838</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.543859649122807</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4210526315789473</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03508771929824561</v>
+        <v>0.03389830508474576</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0242914979757085</v>
+        <v>0.02362204724409449</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1700404858299595</v>
+        <v>0.1653543307086614</v>
       </c>
       <c r="I15">
-        <v>0.048582995951417</v>
+        <v>0.05118110236220472</v>
       </c>
       <c r="J15">
-        <v>0.3238866396761134</v>
+        <v>0.3346456692913386</v>
       </c>
       <c r="K15">
-        <v>0.03238866396761134</v>
+        <v>0.03149606299212598</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01619433198380567</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06882591093117409</v>
+        <v>0.06692913385826772</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3157894736842105</v>
+        <v>0.3110236220472441</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03043478260869565</v>
+        <v>0.02991452991452992</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1739130434782609</v>
+        <v>0.1752136752136752</v>
       </c>
       <c r="I16">
-        <v>0.0782608695652174</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="J16">
-        <v>0.4130434782608696</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="K16">
-        <v>0.1043478260869565</v>
+        <v>0.1068376068376068</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01304347826086956</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0391304347826087</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1478260869565217</v>
+        <v>0.1495726495726496</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01553398058252427</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1825242718446602</v>
+        <v>0.1823308270676692</v>
       </c>
       <c r="I17">
-        <v>0.1048543689320388</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J17">
-        <v>0.4601941747572815</v>
+        <v>0.462406015037594</v>
       </c>
       <c r="K17">
-        <v>0.09320388349514563</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01747572815533981</v>
+        <v>0.01691729323308271</v>
       </c>
       <c r="N17">
-        <v>0.001941747572815534</v>
+        <v>0.001879699248120301</v>
       </c>
       <c r="O17">
-        <v>0.05436893203883495</v>
+        <v>0.05451127819548872</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.06990291262135923</v>
+        <v>0.06954887218045112</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.004694835680751174</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2206572769953052</v>
+        <v>0.2207207207207207</v>
       </c>
       <c r="I18">
-        <v>0.06572769953051644</v>
+        <v>0.06306306306306306</v>
       </c>
       <c r="J18">
-        <v>0.4366197183098591</v>
+        <v>0.4369369369369369</v>
       </c>
       <c r="K18">
-        <v>0.107981220657277</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0187793427230047</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08450704225352113</v>
+        <v>0.09009009009009009</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06103286384976526</v>
+        <v>0.05855855855855856</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01279461279461279</v>
+        <v>0.01236979166666667</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2161616161616162</v>
+        <v>0.2174479166666667</v>
       </c>
       <c r="I19">
-        <v>0.09831649831649832</v>
+        <v>0.09895833333333333</v>
       </c>
       <c r="J19">
-        <v>0.4087542087542088</v>
+        <v>0.4055989583333333</v>
       </c>
       <c r="K19">
-        <v>0.1003367003367003</v>
+        <v>0.1015625</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02558922558922559</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="N19">
-        <v>0.0006734006734006734</v>
+        <v>0.0006510416666666666</v>
       </c>
       <c r="O19">
-        <v>0.05387205387205387</v>
+        <v>0.05338541666666666</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08350168350168351</v>
+        <v>0.083984375</v>
       </c>
     </row>
   </sheetData>
